--- a/weightRecord.xlsx
+++ b/weightRecord.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -61,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +71,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -395,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,6 +506,22 @@
         <v>1.7199999999999989</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>43479</v>
+      </c>
+      <c r="B7">
+        <v>73.52</v>
+      </c>
+      <c r="C7" s="3">
+        <f>B6-B7</f>
+        <v>-0.39999999999999147</v>
+      </c>
+      <c r="D7">
+        <f>B2-B7</f>
+        <v>1.3200000000000074</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/weightRecord.xlsx
+++ b/weightRecord.xlsx
@@ -93,11 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -522,6 +523,22 @@
         <v>1.3200000000000074</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B8">
+        <v>73.98</v>
+      </c>
+      <c r="C8" s="4">
+        <f>B7-B8</f>
+        <v>-0.46000000000000796</v>
+      </c>
+      <c r="D8">
+        <f>B2-B8</f>
+        <v>0.85999999999999943</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/weightRecord.xlsx
+++ b/weightRecord.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,7 +451,7 @@
         <v>73.819999999999993</v>
       </c>
       <c r="C3" s="2">
-        <f>B2-B3</f>
+        <f t="shared" ref="C3:C8" si="0">B2-B3</f>
         <v>1.0200000000000102</v>
       </c>
       <c r="D3">
@@ -467,7 +467,7 @@
         <v>73.72</v>
       </c>
       <c r="C4">
-        <f>B3-B4</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999994316E-2</v>
       </c>
       <c r="D4">
@@ -483,7 +483,7 @@
         <v>73.599999999999994</v>
       </c>
       <c r="C5">
-        <f>B4-B5</f>
+        <f t="shared" si="0"/>
         <v>0.12000000000000455</v>
       </c>
       <c r="D5">
@@ -499,7 +499,7 @@
         <v>73.12</v>
       </c>
       <c r="C6">
-        <f>B5-B6</f>
+        <f t="shared" si="0"/>
         <v>0.47999999999998977</v>
       </c>
       <c r="D6">
@@ -515,7 +515,7 @@
         <v>73.52</v>
       </c>
       <c r="C7" s="3">
-        <f>B6-B7</f>
+        <f t="shared" si="0"/>
         <v>-0.39999999999999147</v>
       </c>
       <c r="D7">
@@ -531,12 +531,44 @@
         <v>73.98</v>
       </c>
       <c r="C8" s="4">
-        <f>B7-B8</f>
+        <f t="shared" si="0"/>
         <v>-0.46000000000000796</v>
       </c>
       <c r="D8">
         <f>B2-B8</f>
         <v>0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>43481</v>
+      </c>
+      <c r="B9">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="C9" s="4">
+        <f>B8-B9</f>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="D9">
+        <f>B2-B9</f>
+        <v>0.57999999999999829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43482</v>
+      </c>
+      <c r="B10">
+        <v>74.3</v>
+      </c>
+      <c r="C10" s="4">
+        <f>B9-B10</f>
+        <v>-3.9999999999992042E-2</v>
+      </c>
+      <c r="D10">
+        <f>B2-B10</f>
+        <v>0.54000000000000625</v>
       </c>
     </row>
   </sheetData>
